--- a/payments.xlsx
+++ b/payments.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
@@ -10,8 +10,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,41 +30,48 @@
     <t>SIM</t>
   </si>
   <si>
-    <t>1K58xGp3vzTgGC1JeQsmoTfXP3zq4TdA4S</t>
-  </si>
-  <si>
     <t>Litecoin</t>
   </si>
   <si>
-    <t>MFsJqCD2vh5DXVs4sBeqH1rQM7N6qWxzjJ</t>
-  </si>
-  <si>
     <t>Оплата с баланса</t>
   </si>
   <si>
     <t>+79775752135</t>
   </si>
   <si>
-    <t>4048415027506852</t>
-  </si>
-  <si>
-    <t>4048415033748878</t>
-  </si>
-  <si>
-    <t>4048415033910031</t>
+    <t>1HGu34ZGUn5QrjWf2an3xwYoGuFmYQMZoQ</t>
+  </si>
+  <si>
+    <t>MBhv8ZvV1TGotH8BmiuEtHzYVCAZpLcr3U</t>
+  </si>
+  <si>
+    <t>4048415041393584</t>
+  </si>
+  <si>
+    <t>4048415002254353</t>
+  </si>
+  <si>
+    <t>4048415042013231</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,12 +94,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -365,40 +373,40 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="35.375" customWidth="1"/>
-    <col min="4" max="4" width="26.5" customWidth="1"/>
-    <col min="5" max="5" width="29.5" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -406,16 +414,16 @@
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -423,23 +431,23 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>5</v>

--- a/payments.xlsx
+++ b/payments.xlsx
@@ -36,15 +36,6 @@
     <t>Оплата с баланса</t>
   </si>
   <si>
-    <t>+79775752135</t>
-  </si>
-  <si>
-    <t>1HGu34ZGUn5QrjWf2an3xwYoGuFmYQMZoQ</t>
-  </si>
-  <si>
-    <t>MBhv8ZvV1TGotH8BmiuEtHzYVCAZpLcr3U</t>
-  </si>
-  <si>
     <t>4048415041393584</t>
   </si>
   <si>
@@ -52,6 +43,15 @@
   </si>
   <si>
     <t>4048415042013231</t>
+  </si>
+  <si>
+    <t>1LA5iwzq3KA8cPimR7MoZmcfT3g3e6p5Uj</t>
+  </si>
+  <si>
+    <t>MKg3EPNarqiLa1Yv9rvBRZJfVhC9snLHyF</t>
+  </si>
+  <si>
+    <t>недоступен</t>
   </si>
 </sst>
 </file>
@@ -403,7 +403,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -414,13 +414,13 @@
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -431,7 +431,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -442,7 +442,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
